--- a/biology/Zoologie/Coq_de_Java/Coq_de_Java.xlsx
+++ b/biology/Zoologie/Coq_de_Java/Coq_de_Java.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gallus varius
 Le Coq vert de Java (Gallus varius) est une espèce d'oiseaux de la famille des Phasianidae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau est le plus vivement coloré du genre Gallus, avec une crête non dentelée tricolore (verte, bleue puis rouge au sommet) et un barbillon unique (jaune, rouge et bleu). Les plumes du camail sont noires, courtes, larges, arrondies et liserées bleues et vertes. Les lancettes sont abondantes et développées, de couleur vert foncé bordé de jaune.
 Ces oiseaux vivent en petits groupes de 2 à 5 individus, dirigés par un mâle dominant.
@@ -545,7 +559,9 @@
           <t>Dimorphisme sexuel</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme tous les phasianidés, le dimorphisme sexuel est très marqué : le coq est plus grand et vivement coloré avec des ergots sur les tarses, alors que la poule est plus petite et plus terne, afin de se camoufler lors de la couvaison.
 La crête est développée et colorée chez le coq, alors que celle de la poule est quasi inexistante.
@@ -577,7 +593,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les couples restent fidèles à vie.
 La poule construit son nid dans un endroit isolé de ses prédateurs (souches d'arbres creux, terriers abandonnés, dans les broussailles et les buissons...), généralement au niveau du sol car les poussins sont nidifuges.
@@ -615,7 +633,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit sur les îles de Java (partie orientale), Bali, Komodo, Lombok, Sumbawa ainsi que sur les petites îles environnantes où le climat est chaud et humide toute l'année sous des températures autour de 30 °C.
 </t>
@@ -646,7 +666,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau habite les régions côtières et les vallées semi-arides : les mangroves, les plages, les rizières et les grottes.
 </t>
@@ -677,7 +699,9 @@
           <t>Régime alimentaire</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Essentiellement carnivore, cette espèce se nourrit principalement d'espèces invertébrées marines et côtières (mollusques, crustacés, méduses, étoiles de mer, puces d'eau, termites, larves d'insectes...)
 </t>
